--- a/Client/Assets/Publish/Config/本地化.xlsx
+++ b/Client/Assets/Publish/Config/本地化.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="UILocation" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -379,19 +379,25 @@
   </si>
   <si>
     <t>乌木剑</t>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,166 +409,33 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,194 +448,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -770,254 +457,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1028,7 +473,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1043,62 +488,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1389,25 +784,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95:B98"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:7">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1001001</v>
       </c>
@@ -1499,7 +894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1001002</v>
       </c>
@@ -1522,7 +917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1001003</v>
       </c>
@@ -1535,7 +930,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1001004</v>
       </c>
@@ -1548,7 +943,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1001005</v>
       </c>
@@ -1561,7 +956,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1001006</v>
       </c>
@@ -1574,7 +969,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1001007</v>
       </c>
@@ -1587,7 +982,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1001008</v>
       </c>
@@ -1600,7 +995,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1001009</v>
       </c>
@@ -1613,7 +1008,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1001010</v>
       </c>
@@ -1636,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1001011</v>
       </c>
@@ -1659,7 +1054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1001012</v>
       </c>
@@ -1682,7 +1077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1001013</v>
       </c>
@@ -1705,7 +1100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1001014</v>
       </c>
@@ -1718,7 +1113,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1001015</v>
       </c>
@@ -1731,7 +1126,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1001016</v>
       </c>
@@ -1744,7 +1139,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1001017</v>
       </c>
@@ -1757,7 +1152,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1001018</v>
       </c>
@@ -1770,7 +1165,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1001019</v>
       </c>
@@ -1783,7 +1178,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1001020</v>
       </c>
@@ -1796,7 +1191,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1001021</v>
       </c>
@@ -1809,7 +1204,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1001022</v>
       </c>
@@ -1822,7 +1217,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1001023</v>
       </c>
@@ -1835,7 +1230,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1001024</v>
       </c>
@@ -1848,7 +1243,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1001025</v>
       </c>
@@ -1861,7 +1256,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1001026</v>
       </c>
@@ -1874,7 +1269,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1001027</v>
       </c>
@@ -1887,7 +1282,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1001028</v>
       </c>
@@ -1900,7 +1295,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" ht="16.5" spans="1:7">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1001029</v>
       </c>
@@ -1913,7 +1308,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" ht="16.5" spans="1:7">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1001030</v>
       </c>
@@ -1926,7 +1321,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" ht="16.5" spans="1:7">
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>1001031</v>
       </c>
@@ -1939,7 +1334,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" ht="16.5" spans="1:7">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>1001032</v>
       </c>
@@ -1952,7 +1347,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" ht="16.5" spans="1:7">
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>1001033</v>
       </c>
@@ -1965,7 +1360,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" ht="16.5" spans="1:7">
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>1001034</v>
       </c>
@@ -1978,7 +1373,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" ht="16.5" spans="1:7">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>1001035</v>
       </c>
@@ -1991,7 +1386,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" ht="16.5" spans="1:7">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1001036</v>
       </c>
@@ -2004,7 +1399,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" customFormat="1" ht="16.5" spans="1:7">
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>1001037</v>
       </c>
@@ -2017,7 +1412,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" s="5" customFormat="1" ht="16.5" spans="1:7">
+    <row r="41" spans="1:7" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>1002001</v>
       </c>
@@ -2040,7 +1435,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:7">
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>1002002</v>
       </c>
@@ -2063,7 +1458,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:7">
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1002003</v>
       </c>
@@ -2086,7 +1481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:7">
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>1002004</v>
       </c>
@@ -2109,7 +1504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:7">
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>1002005</v>
       </c>
@@ -2122,7 +1517,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" ht="16.5" spans="1:7">
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>1002006</v>
       </c>
@@ -2135,7 +1530,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" ht="16.5" spans="1:2">
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>1003001</v>
       </c>
@@ -2143,7 +1538,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:2">
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1003002</v>
       </c>
@@ -2151,7 +1546,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:2">
+    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>1003003</v>
       </c>
@@ -2159,7 +1554,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:2">
+    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>1003004</v>
       </c>
@@ -2167,7 +1562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:2">
+    <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>1003005</v>
       </c>
@@ -2175,7 +1570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:2">
+    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>1004001</v>
       </c>
@@ -2183,7 +1578,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:2">
+    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>1004002</v>
       </c>
@@ -2191,7 +1586,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:2">
+    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>1004003</v>
       </c>
@@ -2199,7 +1594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:2">
+    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>1004004</v>
       </c>
@@ -2207,7 +1602,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:2">
+    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1004005</v>
       </c>
@@ -2215,7 +1610,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:2">
+    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>1004006</v>
       </c>
@@ -2223,7 +1618,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:2">
+    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>1004007</v>
       </c>
@@ -2231,7 +1626,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:2">
+    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>1004008</v>
       </c>
@@ -2239,7 +1634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:2">
+    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>1004009</v>
       </c>
@@ -2247,7 +1642,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:2">
+    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>1004010</v>
       </c>
@@ -2255,7 +1650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:2">
+    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>1004011</v>
       </c>
@@ -2263,7 +1658,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:2">
+    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>1004012</v>
       </c>
@@ -2271,7 +1666,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:2">
+    <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>1004013</v>
       </c>
@@ -2279,7 +1674,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:2">
+    <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>1004014</v>
       </c>
@@ -2287,7 +1682,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:2">
+    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>1004015</v>
       </c>
@@ -2295,7 +1690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:2">
+    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>1004016</v>
       </c>
@@ -2303,7 +1698,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:2">
+    <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>1004017</v>
       </c>
@@ -2311,7 +1706,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:2">
+    <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>1004018</v>
       </c>
@@ -2319,7 +1714,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:2">
+    <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>1004019</v>
       </c>
@@ -2327,7 +1722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:2">
+    <row r="71" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>1004020</v>
       </c>
@@ -2335,7 +1730,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:2">
+    <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>1004021</v>
       </c>
@@ -2343,7 +1738,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:2">
+    <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>1005001</v>
       </c>
@@ -2351,7 +1746,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="1:2">
+    <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>1005002</v>
       </c>
@@ -2359,7 +1754,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:2">
+    <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>1005003</v>
       </c>
@@ -2367,7 +1762,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="1:2">
+    <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>1005004</v>
       </c>
@@ -2375,7 +1770,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:2">
+    <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>1005005</v>
       </c>
@@ -2383,7 +1778,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:2">
+    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>1005006</v>
       </c>
@@ -2391,7 +1786,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:2">
+    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>1005007</v>
       </c>
@@ -2399,7 +1794,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:2">
+    <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>1005008</v>
       </c>
@@ -2407,7 +1802,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:2">
+    <row r="81" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>1005009</v>
       </c>
@@ -2415,7 +1810,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:2">
+    <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>1006001</v>
       </c>
@@ -2423,7 +1818,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:2">
+    <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>1006002</v>
       </c>
@@ -2431,7 +1826,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:2">
+    <row r="84" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>1006003</v>
       </c>
@@ -2439,7 +1834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:2">
+    <row r="85" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>1006004</v>
       </c>
@@ -2447,7 +1842,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:2">
+    <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>1006005</v>
       </c>
@@ -2455,7 +1850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:2">
+    <row r="87" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>1006006</v>
       </c>
@@ -2463,7 +1858,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:2">
+    <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>1006007</v>
       </c>
@@ -2471,7 +1866,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:2">
+    <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>1006008</v>
       </c>
@@ -2479,7 +1874,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:2">
+    <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>1006009</v>
       </c>
@@ -2487,7 +1882,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:2">
+    <row r="91" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>1006010</v>
       </c>
@@ -2495,7 +1890,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:2">
+    <row r="92" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>1007001</v>
       </c>
@@ -2503,7 +1898,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:2">
+    <row r="93" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>1007002</v>
       </c>
@@ -2511,7 +1906,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:2">
+    <row r="94" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>1007003</v>
       </c>
@@ -2519,61 +1914,88 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:2">
-      <c r="A95">
+    <row r="95" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>1008001</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>1008002</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>1008003</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
         <v>2001001</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B98" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:2">
-      <c r="A96">
+    <row r="99" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <v>2001002</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B99" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:2">
-      <c r="A97">
+    <row r="100" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>2001003</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B100" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:2">
-      <c r="A98">
+    <row r="101" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
         <v>2001004</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B101" s="3" t="s">
         <v>112</v>
       </c>
     </row>
+    <row r="102" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2596,7 +2018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:7">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2642,7 +2064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1001001</v>
       </c>
@@ -2655,7 +2077,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="16.5" spans="1:2">
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1001002</v>
       </c>
@@ -2663,7 +2085,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:2">
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1001003</v>
       </c>
@@ -2671,7 +2093,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:2">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1001004</v>
       </c>
@@ -2679,7 +2101,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:2">
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1001005</v>
       </c>
@@ -2687,7 +2109,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:2">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1001006</v>
       </c>
@@ -2695,7 +2117,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2001001</v>
       </c>
@@ -2704,26 +2126,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2746,7 +2167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:7">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2769,7 +2190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:7">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2792,7 +2213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1001001</v>
       </c>
@@ -2816,7 +2237,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Client/Assets/Publish/Config/本地化.xlsx
+++ b/Client/Assets/Publish/Config/本地化.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UILocation" sheetId="1" r:id="rId1"/>
     <sheet name="UICodeText" sheetId="2" r:id="rId2"/>
     <sheet name="UIEquip" sheetId="3" r:id="rId3"/>
+    <sheet name="UINames" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -391,6 +392,18 @@
   <si>
     <t>弓箭手</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>山丘巨人</t>
+  </si>
+  <si>
+    <t>小恶魔</t>
+  </si>
+  <si>
+    <t>骷髅兵</t>
+  </si>
+  <si>
+    <t>死神</t>
   </si>
 </sst>
 </file>
@@ -427,11 +440,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -792,7 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
@@ -2136,7 +2153,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2240,4 +2257,184 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1001001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1001002</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1001003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1001004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>